--- a/src/main/java/resources/demoTest.xlsx
+++ b/src/main/java/resources/demoTest.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonzi\eclipse-workspace\demo_workspace\mavenproject\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FC2DD7-9EC3-4468-A6B7-4CD6CA0253F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589A381-1FCC-4D07-815D-D91200BFCD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1965" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{5B58C0C6-69FD-43E8-9E08-76AD9C45BB5B}"/>
+    <workbookView xWindow="6300" yWindow="1965" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{5B58C0C6-69FD-43E8-9E08-76AD9C45BB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
     <sheet name="TestSuite" sheetId="5" r:id="rId2"/>
-    <sheet name="TestStepMapping" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCases" sheetId="3" r:id="rId3"/>
     <sheet name="TestSteps" sheetId="4" r:id="rId4"/>
     <sheet name="AppElements" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="132">
   <si>
     <t>EnvironmentName</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>FillUpContact</t>
   </si>
   <si>
-    <t>0212345678</t>
-  </si>
-  <si>
     <t>setText</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>EmailText</t>
   </si>
   <si>
-    <t>TelephoneText</t>
-  </si>
-  <si>
     <t>MessageText</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>CustomScript</t>
   </si>
   <si>
-    <t>testelements.CustomScripts</t>
-  </si>
-  <si>
     <t>BuyTeddyBear</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
     <t>BuySmileyFace</t>
   </si>
   <si>
-    <t>TestSurname</t>
-  </si>
-  <si>
     <t>TestForename</t>
   </si>
   <si>
@@ -304,6 +289,153 @@
   </si>
   <si>
     <t>Buy5FluffyBunny</t>
+  </si>
+  <si>
+    <t>TestSuite1</t>
+  </si>
+  <si>
+    <t>.//a[text()='Submit']</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>validateErrorMessage</t>
+  </si>
+  <si>
+    <t>validateSuccessMessage</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>HeaderErrorMessageValidate</t>
+  </si>
+  <si>
+    <t>HeaderSuccessMessageValidate</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class,'alert-success')]</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class,'alert-error')]</t>
+  </si>
+  <si>
+    <t>NavigateCart</t>
+  </si>
+  <si>
+    <t>StuffedFrogBuyPrice</t>
+  </si>
+  <si>
+    <t>FluffyBunnyBuyPrice</t>
+  </si>
+  <si>
+    <t>ValentineBearBuyPrice</t>
+  </si>
+  <si>
+    <t>.//h4[text()='Stuffed Frog']/ancestor::li//span[contains(@class,'price')]</t>
+  </si>
+  <si>
+    <t>.//h4[text()='Fluffy Bunny']/ancestor::li//span[contains(@class,'price')]</t>
+  </si>
+  <si>
+    <t>.//h4[text()='Valentine Bear']/ancestor::li//span[contains(@class,'price')]</t>
+  </si>
+  <si>
+    <t>.//a[contains(text(),'Cart')]</t>
+  </si>
+  <si>
+    <t>CartBtn</t>
+  </si>
+  <si>
+    <t>ValidatePriceStuffedFrog</t>
+  </si>
+  <si>
+    <t>ValidatePriceFluffyBunny</t>
+  </si>
+  <si>
+    <t>ValidatePriceValentineBear</t>
+  </si>
+  <si>
+    <t>.//td[contains(text(),'Stuffed Frog')]/following-sibling::td</t>
+  </si>
+  <si>
+    <t>StuffedFrogPrice</t>
+  </si>
+  <si>
+    <t>FluffyBunnyPrice</t>
+  </si>
+  <si>
+    <t>ValentineBearPrice</t>
+  </si>
+  <si>
+    <t>CartPage</t>
+  </si>
+  <si>
+    <t>ValidateSubtotalStuffedFrog</t>
+  </si>
+  <si>
+    <t>ValidateSubtotalFluffyBunny</t>
+  </si>
+  <si>
+    <t>ValidateSubtotalValentineBear</t>
+  </si>
+  <si>
+    <t>StuffedFrogSubtotal</t>
+  </si>
+  <si>
+    <t>FluffyBunnySubtotal</t>
+  </si>
+  <si>
+    <t>ValentineBearSubtotal</t>
+  </si>
+  <si>
+    <t>.//td[contains(text(),'Stuffed Frog')]/following-sibling::td[3]</t>
+  </si>
+  <si>
+    <t>.//td[contains(text(),'Fluffy Bunny')]/following-sibling::td</t>
+  </si>
+  <si>
+    <t>.//td[contains(text(),'Fluffy Bunny')]/following-sibling::td[3]</t>
+  </si>
+  <si>
+    <t>.//td[contains(text(),'Valentine Bear')]/following-sibling::td</t>
+  </si>
+  <si>
+    <t>.//td[contains(text(),'Valentine Bear')]/following-sibling::td[3]</t>
+  </si>
+  <si>
+    <t>$10.99</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>$21.98</t>
+  </si>
+  <si>
+    <t>$49.95</t>
+  </si>
+  <si>
+    <t>ValidateTotalPrice</t>
+  </si>
+  <si>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>checkLabel</t>
+  </si>
+  <si>
+    <t>$14.99</t>
+  </si>
+  <si>
+    <t>$44.97</t>
+  </si>
+  <si>
+    <t>116.9</t>
   </si>
 </sst>
 </file>
@@ -354,10 +486,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,7 +809,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,18 +819,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -711,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257E02E3-DB11-4C99-B1D7-6C74DA1C66FD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,44 +859,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -774,105 +954,167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB3C0F4-5FBB-4CEF-B4E8-FF4A450B1D8D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>81</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74166BB1-7E44-4A18-B2BF-3CF25386A8F8}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,311 +1123,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{1C614B4D-2293-4BFB-875A-9EE92A184856}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{1C614B4D-2293-4BFB-875A-9EE92A184856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D61730-B13A-4C01-B47F-289877B19D84}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,269 +1644,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/demoTest.xlsx
+++ b/src/main/java/resources/demoTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonzi\eclipse-workspace\demo_workspace\mavenproject\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589A381-1FCC-4D07-815D-D91200BFCD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC0F4E-62D4-45E8-A8ED-2A1922B2B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="1965" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{5B58C0C6-69FD-43E8-9E08-76AD9C45BB5B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="133">
   <si>
     <t>EnvironmentName</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>116.9</t>
+  </si>
+  <si>
+    <t>.//td/strong[contains(text(), 'Total')]</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74166BB1-7E44-4A18-B2BF-3CF25386A8F8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D61730-B13A-4C01-B47F-289877B19D84}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2080,22 @@
         <v>121</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>